--- a/Code/Results/Cases/Case_1_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_207/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9552401232868117</v>
+        <v>1.014886991352967</v>
       </c>
       <c r="D2">
-        <v>1.030228445398772</v>
+        <v>1.041572210879171</v>
       </c>
       <c r="E2">
-        <v>0.9675477723658985</v>
+        <v>1.01657958546885</v>
       </c>
       <c r="F2">
-        <v>1.015716671025186</v>
+        <v>1.044029674126431</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051859627472373</v>
+        <v>1.035502744679201</v>
       </c>
       <c r="J2">
-        <v>0.9788472952990727</v>
+        <v>1.020115658763645</v>
       </c>
       <c r="K2">
-        <v>1.041282120176726</v>
+        <v>1.044351346431286</v>
       </c>
       <c r="L2">
-        <v>0.9794785297108428</v>
+        <v>1.019431334440237</v>
       </c>
       <c r="M2">
-        <v>1.026961305332325</v>
+        <v>1.046801873561701</v>
       </c>
       <c r="N2">
-        <v>0.9963441388727119</v>
+        <v>1.010697558652584</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9630287772734638</v>
+        <v>1.016418288807846</v>
       </c>
       <c r="D3">
-        <v>1.03430103367079</v>
+        <v>1.042318752867021</v>
       </c>
       <c r="E3">
-        <v>0.9739657993461206</v>
+        <v>1.017895117441466</v>
       </c>
       <c r="F3">
-        <v>1.021386926139714</v>
+        <v>1.045128995407642</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053437629767894</v>
+        <v>1.035681005346287</v>
       </c>
       <c r="J3">
-        <v>0.9845806971600539</v>
+        <v>1.021278658044432</v>
       </c>
       <c r="K3">
-        <v>1.044513060160204</v>
+        <v>1.044908711781824</v>
       </c>
       <c r="L3">
-        <v>0.9849429987590822</v>
+        <v>1.020550865712495</v>
       </c>
       <c r="M3">
-        <v>1.031753279324331</v>
+        <v>1.047711597531805</v>
       </c>
       <c r="N3">
-        <v>0.998338970214215</v>
+        <v>1.011092836752121</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9679077853803716</v>
+        <v>1.017407435628509</v>
       </c>
       <c r="D4">
-        <v>1.036852181553094</v>
+        <v>1.042798975326388</v>
       </c>
       <c r="E4">
-        <v>0.9779943693579403</v>
+        <v>1.018745178888278</v>
       </c>
       <c r="F4">
-        <v>1.02494164812752</v>
+        <v>1.045837340075268</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054407802805519</v>
+        <v>1.035793280280198</v>
       </c>
       <c r="J4">
-        <v>0.9881696305114834</v>
+        <v>1.022029201167756</v>
       </c>
       <c r="K4">
-        <v>1.046525283067715</v>
+        <v>1.045265866839377</v>
       </c>
       <c r="L4">
-        <v>0.988365844808152</v>
+        <v>1.021273576977102</v>
       </c>
       <c r="M4">
-        <v>1.034748087800143</v>
+        <v>1.048296679083774</v>
       </c>
       <c r="N4">
-        <v>0.9995862459601591</v>
+        <v>1.011347632672596</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9699227353735369</v>
+        <v>1.017822873231924</v>
       </c>
       <c r="D5">
-        <v>1.03790533271205</v>
+        <v>1.043000181102251</v>
       </c>
       <c r="E5">
-        <v>0.9796599326108879</v>
+        <v>1.019102269420221</v>
       </c>
       <c r="F5">
-        <v>1.02640991205255</v>
+        <v>1.046134414559089</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054803849162759</v>
+        <v>1.035839745126762</v>
       </c>
       <c r="J5">
-        <v>0.989651075642733</v>
+        <v>1.022344257796123</v>
       </c>
       <c r="K5">
-        <v>1.047353138878687</v>
+        <v>1.045415177729779</v>
       </c>
       <c r="L5">
-        <v>0.9897792647354912</v>
+        <v>1.021577003325444</v>
       </c>
       <c r="M5">
-        <v>1.035982828837478</v>
+        <v>1.048541794290335</v>
       </c>
       <c r="N5">
-        <v>1.000100735967315</v>
+        <v>1.011454517335175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9702589955470283</v>
+        <v>1.017892603838573</v>
       </c>
       <c r="D6">
-        <v>1.038081048156453</v>
+        <v>1.043033924580831</v>
       </c>
       <c r="E6">
-        <v>0.9799379903536866</v>
+        <v>1.019162210526257</v>
       </c>
       <c r="F6">
-        <v>1.026654940846916</v>
+        <v>1.046184252885758</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054869664501236</v>
+        <v>1.035847503640817</v>
       </c>
       <c r="J6">
-        <v>0.9898982577321626</v>
+        <v>1.022397129701411</v>
       </c>
       <c r="K6">
-        <v>1.047491098113943</v>
+        <v>1.045440198603146</v>
       </c>
       <c r="L6">
-        <v>0.99001512777551</v>
+        <v>1.021627926563867</v>
       </c>
       <c r="M6">
-        <v>1.036188753453265</v>
+        <v>1.048582900236595</v>
       </c>
       <c r="N6">
-        <v>1.000186557787819</v>
+        <v>1.011472450219768</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9679348485325155</v>
+        <v>1.017412988286335</v>
       </c>
       <c r="D7">
-        <v>1.036866328862195</v>
+        <v>1.042801666518722</v>
       </c>
       <c r="E7">
-        <v>0.9780167327477002</v>
+        <v>1.018749951423627</v>
       </c>
       <c r="F7">
-        <v>1.024961368312296</v>
+        <v>1.04584131240067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054413140749956</v>
+        <v>1.035793904036246</v>
       </c>
       <c r="J7">
-        <v>0.9881895310613642</v>
+        <v>1.022033412816041</v>
       </c>
       <c r="K7">
-        <v>1.04653641509977</v>
+        <v>1.045267865227926</v>
       </c>
       <c r="L7">
-        <v>0.9883848294633558</v>
+        <v>1.021277632945469</v>
       </c>
       <c r="M7">
-        <v>1.034764680496782</v>
+        <v>1.04829995767524</v>
       </c>
       <c r="N7">
-        <v>0.9995931586680739</v>
+        <v>1.011349061778069</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9579070803767984</v>
+        <v>1.01540485864976</v>
       </c>
       <c r="D8">
-        <v>1.031622696788534</v>
+        <v>1.041825096438466</v>
       </c>
       <c r="E8">
-        <v>0.9697435991714749</v>
+        <v>1.017024422822764</v>
       </c>
       <c r="F8">
-        <v>1.017657400284481</v>
+        <v>1.044401815243998</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052403693555122</v>
+        <v>1.035563624612976</v>
       </c>
       <c r="J8">
-        <v>0.9808109913817439</v>
+        <v>1.020509116527412</v>
       </c>
       <c r="K8">
-        <v>1.042390700581134</v>
+        <v>1.044540435022315</v>
       </c>
       <c r="L8">
-        <v>0.981349632965516</v>
+        <v>1.019810040721867</v>
       </c>
       <c r="M8">
-        <v>1.028603387032684</v>
+        <v>1.047110059448721</v>
       </c>
       <c r="N8">
-        <v>0.9970276599805072</v>
+        <v>1.01083134790601</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9388894185894762</v>
+        <v>1.011852837783804</v>
       </c>
       <c r="D9">
-        <v>1.021700031177396</v>
+        <v>1.040082490765393</v>
       </c>
       <c r="E9">
-        <v>0.9541269512847042</v>
+        <v>1.01397453833955</v>
       </c>
       <c r="F9">
-        <v>1.003850366994011</v>
+        <v>1.041842240062579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048454460607489</v>
+        <v>1.035134323368208</v>
       </c>
       <c r="J9">
-        <v>0.9668013911733856</v>
+        <v>1.01780756247623</v>
       </c>
       <c r="K9">
-        <v>1.034450584876821</v>
+        <v>1.043231808194725</v>
       </c>
       <c r="L9">
-        <v>0.9680108817147073</v>
+        <v>1.017210680746407</v>
       </c>
       <c r="M9">
-        <v>1.016881282046668</v>
+        <v>1.044985876746627</v>
       </c>
       <c r="N9">
-        <v>0.992145903327172</v>
+        <v>1.009911509748014</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9251191572386148</v>
+        <v>1.009475251103775</v>
       </c>
       <c r="D10">
-        <v>1.014565210060956</v>
+        <v>1.038906094647093</v>
       </c>
       <c r="E10">
-        <v>0.9428804131096696</v>
+        <v>1.011934648686264</v>
       </c>
       <c r="F10">
-        <v>0.9939198938495848</v>
+        <v>1.040120246487484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045517972736858</v>
+        <v>1.03483231227235</v>
       </c>
       <c r="J10">
-        <v>0.9566545006518103</v>
+        <v>1.015995692969898</v>
       </c>
       <c r="K10">
-        <v>1.028676372358671</v>
+        <v>1.042341342119609</v>
       </c>
       <c r="L10">
-        <v>0.9583636954751308</v>
+        <v>1.015468492515486</v>
       </c>
       <c r="M10">
-        <v>1.008399801152375</v>
+        <v>1.043551188210768</v>
       </c>
       <c r="N10">
-        <v>0.9886044239961578</v>
+        <v>1.009293074821675</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9188475839834407</v>
+        <v>1.00844333896347</v>
       </c>
       <c r="D11">
-        <v>1.011336646191363</v>
+        <v>1.038393216961082</v>
       </c>
       <c r="E11">
-        <v>0.9377757028929203</v>
+        <v>1.011049692362291</v>
       </c>
       <c r="F11">
-        <v>0.9894224869838371</v>
+        <v>1.039370866221991</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044166781468037</v>
+        <v>1.034697787318662</v>
       </c>
       <c r="J11">
-        <v>0.952034652317683</v>
+        <v>1.015208478538605</v>
       </c>
       <c r="K11">
-        <v>1.026047890557979</v>
+        <v>1.041951471078047</v>
       </c>
       <c r="L11">
-        <v>0.9539748915478971</v>
+        <v>1.014711824102829</v>
       </c>
       <c r="M11">
-        <v>1.004546675078229</v>
+        <v>1.042925518233904</v>
       </c>
       <c r="N11">
-        <v>0.9869910395286576</v>
+        <v>1.009024021502527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9164665854480594</v>
+        <v>1.00805966959656</v>
       </c>
       <c r="D12">
-        <v>1.010114951236798</v>
+        <v>1.038202186001902</v>
       </c>
       <c r="E12">
-        <v>0.9358406135694214</v>
+        <v>1.010720721482819</v>
       </c>
       <c r="F12">
-        <v>0.9877197857637756</v>
+        <v>1.039091946963307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043652165602844</v>
+        <v>1.034647254812343</v>
       </c>
       <c r="J12">
-        <v>0.9502811663235898</v>
+        <v>1.014915664497793</v>
       </c>
       <c r="K12">
-        <v>1.025050896990479</v>
+        <v>1.041806009607585</v>
       </c>
       <c r="L12">
-        <v>0.9523096550933084</v>
+        <v>1.014430412793468</v>
       </c>
       <c r="M12">
-        <v>1.003086098619973</v>
+        <v>1.042692446570679</v>
       </c>
       <c r="N12">
-        <v>0.9863785656864693</v>
+        <v>1.008923890273573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9169797356361539</v>
+        <v>1.008141984947186</v>
       </c>
       <c r="D13">
-        <v>1.010378052677698</v>
+        <v>1.038243186580426</v>
       </c>
       <c r="E13">
-        <v>0.9362575255591513</v>
+        <v>1.010791298684306</v>
       </c>
       <c r="F13">
-        <v>0.9880865203069243</v>
+        <v>1.039151801760725</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043763141392951</v>
+        <v>1.034658119730445</v>
       </c>
       <c r="J13">
-        <v>0.9506590522967501</v>
+        <v>1.014978492666759</v>
       </c>
       <c r="K13">
-        <v>1.025265714784704</v>
+        <v>1.041837240836341</v>
       </c>
       <c r="L13">
-        <v>0.952668497295823</v>
+        <v>1.014490792470078</v>
       </c>
       <c r="M13">
-        <v>1.003400764583287</v>
+        <v>1.042742471598224</v>
       </c>
       <c r="N13">
-        <v>0.9865105613189376</v>
+        <v>1.008945377529334</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9186518515059071</v>
+        <v>1.008411632368247</v>
       </c>
       <c r="D14">
-        <v>1.011236128469292</v>
+        <v>1.038377437005192</v>
       </c>
       <c r="E14">
-        <v>0.9376165660962907</v>
+        <v>1.01102250484897</v>
       </c>
       <c r="F14">
-        <v>0.9892824129720517</v>
+        <v>1.039347822236047</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044124507421053</v>
+        <v>1.034693621791782</v>
       </c>
       <c r="J14">
-        <v>0.9518904950033542</v>
+        <v>1.015184282796032</v>
       </c>
       <c r="K14">
-        <v>1.025965908918778</v>
+        <v>1.041939460371769</v>
       </c>
       <c r="L14">
-        <v>0.9538379779787172</v>
+        <v>1.014688569756718</v>
       </c>
       <c r="M14">
-        <v>1.004426556121732</v>
+        <v>1.042906266141673</v>
       </c>
       <c r="N14">
-        <v>0.9869406888356911</v>
+        <v>1.009015748572516</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9196751148991064</v>
+        <v>1.00857772153453</v>
       </c>
       <c r="D15">
-        <v>1.011761790722769</v>
+        <v>1.038460083478798</v>
       </c>
       <c r="E15">
-        <v>0.9384486320767453</v>
+        <v>1.011164924086014</v>
       </c>
       <c r="F15">
-        <v>0.9900148993355835</v>
+        <v>1.039468521810998</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044345446783835</v>
+        <v>1.034715421047249</v>
       </c>
       <c r="J15">
-        <v>0.9526441493404202</v>
+        <v>1.015311022657482</v>
       </c>
       <c r="K15">
-        <v>1.026394539287112</v>
+        <v>1.042002355568624</v>
       </c>
       <c r="L15">
-        <v>0.9545537847305889</v>
+        <v>1.014810380152521</v>
       </c>
       <c r="M15">
-        <v>1.005054618822576</v>
+        <v>1.043007096500466</v>
       </c>
       <c r="N15">
-        <v>0.987203918162552</v>
+        <v>1.009059080865253</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9255284584056883</v>
+        <v>1.009543684227805</v>
       </c>
       <c r="D16">
-        <v>1.014776419174832</v>
+        <v>1.038940059031106</v>
       </c>
       <c r="E16">
-        <v>0.9432139448463429</v>
+        <v>1.01199334446871</v>
       </c>
       <c r="F16">
-        <v>0.9942140060849572</v>
+        <v>1.040169901189431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045605906139257</v>
+        <v>1.034841161178141</v>
       </c>
       <c r="J16">
-        <v>0.9569560533069047</v>
+        <v>1.016047881057537</v>
       </c>
       <c r="K16">
-        <v>1.028847999731472</v>
+        <v>1.042367126038583</v>
       </c>
       <c r="L16">
-        <v>0.9586502419957862</v>
+        <v>1.015518661273858</v>
       </c>
       <c r="M16">
-        <v>1.00865153269682</v>
+        <v>1.043592618070785</v>
       </c>
       <c r="N16">
-        <v>0.9887097181940997</v>
+        <v>1.009310904098542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9291140618897736</v>
+        <v>1.010148956819027</v>
       </c>
       <c r="D17">
-        <v>1.016629125057888</v>
+        <v>1.039240199880032</v>
       </c>
       <c r="E17">
-        <v>0.9461377775241187</v>
+        <v>1.012512537995553</v>
       </c>
       <c r="F17">
-        <v>0.9967934695729778</v>
+        <v>1.040608852803667</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046374726356586</v>
+        <v>1.034919029931369</v>
       </c>
       <c r="J17">
-        <v>0.9595979364132251</v>
+        <v>1.016509374661475</v>
       </c>
       <c r="K17">
-        <v>1.030351735160823</v>
+        <v>1.042594786794224</v>
       </c>
       <c r="L17">
-        <v>0.961161056984728</v>
+        <v>1.015962329440128</v>
       </c>
       <c r="M17">
-        <v>1.010857955444589</v>
+        <v>1.043958709475527</v>
       </c>
       <c r="N17">
-        <v>0.9896320900011197</v>
+        <v>1.009468525208952</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9311760513895653</v>
+        <v>1.010501771091669</v>
       </c>
       <c r="D18">
-        <v>1.017696467341248</v>
+        <v>1.039414930256067</v>
       </c>
       <c r="E18">
-        <v>0.947820812083119</v>
+        <v>1.012815214127875</v>
       </c>
       <c r="F18">
-        <v>0.9982791616934353</v>
+        <v>1.040864524679987</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046815534691224</v>
+        <v>1.034964087447611</v>
       </c>
       <c r="J18">
-        <v>0.9611173401985402</v>
+        <v>1.016778299643135</v>
       </c>
       <c r="K18">
-        <v>1.031216571622666</v>
+        <v>1.042727163286097</v>
       </c>
       <c r="L18">
-        <v>0.9626054093640433</v>
+        <v>1.016220893158166</v>
       </c>
       <c r="M18">
-        <v>1.012127665307382</v>
+        <v>1.044171816165937</v>
       </c>
       <c r="N18">
-        <v>0.9901624733540283</v>
+        <v>1.009560340867985</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9318742852676507</v>
+        <v>1.010622032776173</v>
       </c>
       <c r="D19">
-        <v>1.018058190063305</v>
+        <v>1.039474451715407</v>
       </c>
       <c r="E19">
-        <v>0.9483909893528953</v>
+        <v>1.012918391846671</v>
       </c>
       <c r="F19">
-        <v>0.9987826150333386</v>
+        <v>1.040951641019611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046964565825604</v>
+        <v>1.034979389499085</v>
       </c>
       <c r="J19">
-        <v>0.9616318580980011</v>
+        <v>1.016869952841779</v>
       </c>
       <c r="K19">
-        <v>1.031509417308371</v>
+        <v>1.042772230025626</v>
       </c>
       <c r="L19">
-        <v>0.9630945675761996</v>
+        <v>1.016309019528355</v>
       </c>
       <c r="M19">
-        <v>1.01255773880791</v>
+        <v>1.04424440748918</v>
       </c>
       <c r="N19">
-        <v>0.9903420610829883</v>
+        <v>1.009591627005474</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9287324389081961</v>
+        <v>1.010084040766291</v>
       </c>
       <c r="D20">
-        <v>1.016431734566567</v>
+        <v>1.039208032441194</v>
       </c>
       <c r="E20">
-        <v>0.945826418512959</v>
+        <v>1.012456850118124</v>
       </c>
       <c r="F20">
-        <v>0.9965186858863545</v>
+        <v>1.040561794831594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046293033718539</v>
+        <v>1.034910712797152</v>
       </c>
       <c r="J20">
-        <v>0.9593167411869896</v>
+        <v>1.016459887343085</v>
       </c>
       <c r="K20">
-        <v>1.030191676923372</v>
+        <v>1.042570403796877</v>
       </c>
       <c r="L20">
-        <v>0.9608937779644396</v>
+        <v>1.015914750894257</v>
       </c>
       <c r="M20">
-        <v>1.01062302747395</v>
+        <v>1.043919475647241</v>
       </c>
       <c r="N20">
-        <v>0.9895339244881963</v>
+        <v>1.009451626599729</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9181609198718028</v>
+        <v>1.00833223825645</v>
       </c>
       <c r="D21">
-        <v>1.010984080146725</v>
+        <v>1.038337918111481</v>
       </c>
       <c r="E21">
-        <v>0.9372174707071319</v>
+        <v>1.010954427599715</v>
       </c>
       <c r="F21">
-        <v>0.988931162054542</v>
+        <v>1.039290114744875</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044018451905905</v>
+        <v>1.034683182889366</v>
       </c>
       <c r="J21">
-        <v>0.9515289307749276</v>
+        <v>1.015123694042889</v>
       </c>
       <c r="K21">
-        <v>1.025760301615911</v>
+        <v>1.041909377107472</v>
       </c>
       <c r="L21">
-        <v>0.9534945909699257</v>
+        <v>1.014630339020437</v>
       </c>
       <c r="M21">
-        <v>1.004125315771632</v>
+        <v>1.042858051249092</v>
       </c>
       <c r="N21">
-        <v>0.9868144015574115</v>
+        <v>1.008995031398026</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.911213377769813</v>
+        <v>1.0072286572832</v>
       </c>
       <c r="D22">
-        <v>1.007428034371995</v>
+        <v>1.037787802655467</v>
       </c>
       <c r="E22">
-        <v>0.9315769506712802</v>
+        <v>1.010008294312591</v>
       </c>
       <c r="F22">
-        <v>0.9839729939591215</v>
+        <v>1.03848728223649</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042514269708361</v>
+        <v>1.034536862829734</v>
       </c>
       <c r="J22">
-        <v>0.9464135109605891</v>
+        <v>1.014281214565481</v>
       </c>
       <c r="K22">
-        <v>1.022853762811496</v>
+        <v>1.041490025263053</v>
       </c>
       <c r="L22">
-        <v>0.948637708965567</v>
+        <v>1.013820744166228</v>
       </c>
       <c r="M22">
-        <v>0.9998687782615278</v>
+        <v>1.042186813850515</v>
       </c>
       <c r="N22">
-        <v>0.9850274859722936</v>
+        <v>1.008706834860351</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9149268085653465</v>
+        <v>1.007813894056029</v>
       </c>
       <c r="D23">
-        <v>1.009326143868665</v>
+        <v>1.038079717765141</v>
       </c>
       <c r="E23">
-        <v>0.9345900636363941</v>
+        <v>1.010510002302008</v>
       </c>
       <c r="F23">
-        <v>0.9866201213202529</v>
+        <v>1.038913190667339</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043318963989145</v>
+        <v>1.034614739240755</v>
       </c>
       <c r="J23">
-        <v>0.9491473501073268</v>
+        <v>1.014728055253068</v>
       </c>
       <c r="K23">
-        <v>1.024406499248613</v>
+        <v>1.041712686285216</v>
       </c>
       <c r="L23">
-        <v>0.9512330617662078</v>
+        <v>1.01425012088774</v>
       </c>
       <c r="M23">
-        <v>1.002142299395316</v>
+        <v>1.042543018037786</v>
       </c>
       <c r="N23">
-        <v>0.9859825111668037</v>
+        <v>1.008859720021339</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9289049684894246</v>
+        <v>1.010113374250143</v>
       </c>
       <c r="D24">
-        <v>1.01652096784914</v>
+        <v>1.039222568563047</v>
       </c>
       <c r="E24">
-        <v>0.9459671771601212</v>
+        <v>1.012482013569552</v>
       </c>
       <c r="F24">
-        <v>0.9966429069213075</v>
+        <v>1.040583059420102</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046329970633126</v>
+        <v>1.034914472070906</v>
       </c>
       <c r="J24">
-        <v>0.9594438675810263</v>
+        <v>1.016482249324647</v>
       </c>
       <c r="K24">
-        <v>1.030264038156783</v>
+        <v>1.042581422703999</v>
       </c>
       <c r="L24">
-        <v>0.9610146119191846</v>
+        <v>1.0159362502724</v>
       </c>
       <c r="M24">
-        <v>1.01072923448353</v>
+        <v>1.043937205049115</v>
       </c>
       <c r="N24">
-        <v>0.9895783047200123</v>
+        <v>1.009459262731106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9439832999911099</v>
+        <v>1.012772767948574</v>
       </c>
       <c r="D25">
-        <v>1.024352022143288</v>
+        <v>1.040535577693279</v>
       </c>
       <c r="E25">
-        <v>0.9583003691302899</v>
+        <v>1.014764146761313</v>
       </c>
       <c r="F25">
-        <v>1.007540021267005</v>
+        <v>1.042506691823362</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049526618225866</v>
+        <v>1.035248094759934</v>
       </c>
       <c r="J25">
-        <v>0.9705549762453751</v>
+        <v>1.018507860394927</v>
       </c>
       <c r="K25">
-        <v>1.036583710283828</v>
+        <v>1.043573298397437</v>
       </c>
       <c r="L25">
-        <v>0.9715824561504338</v>
+        <v>1.017884287207982</v>
       </c>
       <c r="M25">
-        <v>1.020022404957338</v>
+        <v>1.04553829198262</v>
       </c>
       <c r="N25">
-        <v>0.9934549554400258</v>
+        <v>1.010150218813517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_207/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014886991352967</v>
+        <v>0.955240123286811</v>
       </c>
       <c r="D2">
-        <v>1.041572210879171</v>
+        <v>1.030228445398772</v>
       </c>
       <c r="E2">
-        <v>1.01657958546885</v>
+        <v>0.9675477723658975</v>
       </c>
       <c r="F2">
-        <v>1.044029674126431</v>
+        <v>1.015716671025186</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035502744679201</v>
+        <v>1.051859627472373</v>
       </c>
       <c r="J2">
-        <v>1.020115658763645</v>
+        <v>0.9788472952990718</v>
       </c>
       <c r="K2">
-        <v>1.044351346431286</v>
+        <v>1.041282120176726</v>
       </c>
       <c r="L2">
-        <v>1.019431334440237</v>
+        <v>0.9794785297108418</v>
       </c>
       <c r="M2">
-        <v>1.046801873561701</v>
+        <v>1.026961305332325</v>
       </c>
       <c r="N2">
-        <v>1.010697558652584</v>
+        <v>0.9963441388727118</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016418288807846</v>
+        <v>0.9630287772734629</v>
       </c>
       <c r="D3">
-        <v>1.042318752867021</v>
+        <v>1.03430103367079</v>
       </c>
       <c r="E3">
-        <v>1.017895117441466</v>
+        <v>0.9739657993461199</v>
       </c>
       <c r="F3">
-        <v>1.045128995407642</v>
+        <v>1.021386926139714</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035681005346287</v>
+        <v>1.053437629767894</v>
       </c>
       <c r="J3">
-        <v>1.021278658044432</v>
+        <v>0.984580697160053</v>
       </c>
       <c r="K3">
-        <v>1.044908711781824</v>
+        <v>1.044513060160205</v>
       </c>
       <c r="L3">
-        <v>1.020550865712495</v>
+        <v>0.9849429987590815</v>
       </c>
       <c r="M3">
-        <v>1.047711597531805</v>
+        <v>1.031753279324331</v>
       </c>
       <c r="N3">
-        <v>1.011092836752121</v>
+        <v>0.9983389702142147</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017407435628509</v>
+        <v>0.9679077853803706</v>
       </c>
       <c r="D4">
-        <v>1.042798975326388</v>
+        <v>1.036852181553093</v>
       </c>
       <c r="E4">
-        <v>1.018745178888278</v>
+        <v>0.9779943693579393</v>
       </c>
       <c r="F4">
-        <v>1.045837340075268</v>
+        <v>1.02494164812752</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035793280280198</v>
+        <v>1.054407802805519</v>
       </c>
       <c r="J4">
-        <v>1.022029201167756</v>
+        <v>0.9881696305114823</v>
       </c>
       <c r="K4">
-        <v>1.045265866839377</v>
+        <v>1.046525283067715</v>
       </c>
       <c r="L4">
-        <v>1.021273576977102</v>
+        <v>0.988365844808151</v>
       </c>
       <c r="M4">
-        <v>1.048296679083774</v>
+        <v>1.034748087800143</v>
       </c>
       <c r="N4">
-        <v>1.011347632672596</v>
+        <v>0.9995862459601588</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017822873231924</v>
+        <v>0.9699227353735357</v>
       </c>
       <c r="D5">
-        <v>1.043000181102251</v>
+        <v>1.03790533271205</v>
       </c>
       <c r="E5">
-        <v>1.019102269420221</v>
+        <v>0.9796599326108868</v>
       </c>
       <c r="F5">
-        <v>1.046134414559089</v>
+        <v>1.026409912052549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035839745126762</v>
+        <v>1.05480384916276</v>
       </c>
       <c r="J5">
-        <v>1.022344257796123</v>
+        <v>0.9896510756427319</v>
       </c>
       <c r="K5">
-        <v>1.045415177729779</v>
+        <v>1.047353138878686</v>
       </c>
       <c r="L5">
-        <v>1.021577003325444</v>
+        <v>0.98977926473549</v>
       </c>
       <c r="M5">
-        <v>1.048541794290335</v>
+        <v>1.035982828837477</v>
       </c>
       <c r="N5">
-        <v>1.011454517335175</v>
+        <v>1.000100735967314</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017892603838573</v>
+        <v>0.9702589955470265</v>
       </c>
       <c r="D6">
-        <v>1.043033924580831</v>
+        <v>1.038081048156452</v>
       </c>
       <c r="E6">
-        <v>1.019162210526257</v>
+        <v>0.9799379903536847</v>
       </c>
       <c r="F6">
-        <v>1.046184252885758</v>
+        <v>1.026654940846915</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035847503640817</v>
+        <v>1.054869664501236</v>
       </c>
       <c r="J6">
-        <v>1.022397129701411</v>
+        <v>0.9898982577321609</v>
       </c>
       <c r="K6">
-        <v>1.045440198603146</v>
+        <v>1.047491098113942</v>
       </c>
       <c r="L6">
-        <v>1.021627926563867</v>
+        <v>0.9900151277755084</v>
       </c>
       <c r="M6">
-        <v>1.048582900236595</v>
+        <v>1.036188753453263</v>
       </c>
       <c r="N6">
-        <v>1.011472450219768</v>
+        <v>1.000186557787819</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017412988286335</v>
+        <v>0.9679348485325154</v>
       </c>
       <c r="D7">
-        <v>1.042801666518722</v>
+        <v>1.036866328862195</v>
       </c>
       <c r="E7">
-        <v>1.018749951423627</v>
+        <v>0.9780167327477</v>
       </c>
       <c r="F7">
-        <v>1.04584131240067</v>
+        <v>1.024961368312296</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035793904036246</v>
+        <v>1.054413140749956</v>
       </c>
       <c r="J7">
-        <v>1.022033412816041</v>
+        <v>0.9881895310613642</v>
       </c>
       <c r="K7">
-        <v>1.045267865227926</v>
+        <v>1.04653641509977</v>
       </c>
       <c r="L7">
-        <v>1.021277632945469</v>
+        <v>0.9883848294633556</v>
       </c>
       <c r="M7">
-        <v>1.04829995767524</v>
+        <v>1.034764680496783</v>
       </c>
       <c r="N7">
-        <v>1.011349061778069</v>
+        <v>0.9995931586680741</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01540485864976</v>
+        <v>0.9579070803767978</v>
       </c>
       <c r="D8">
-        <v>1.041825096438466</v>
+        <v>1.031622696788533</v>
       </c>
       <c r="E8">
-        <v>1.017024422822764</v>
+        <v>0.9697435991714745</v>
       </c>
       <c r="F8">
-        <v>1.044401815243998</v>
+        <v>1.017657400284482</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035563624612976</v>
+        <v>1.052403693555122</v>
       </c>
       <c r="J8">
-        <v>1.020509116527412</v>
+        <v>0.9808109913817435</v>
       </c>
       <c r="K8">
-        <v>1.044540435022315</v>
+        <v>1.042390700581134</v>
       </c>
       <c r="L8">
-        <v>1.019810040721867</v>
+        <v>0.9813496329655155</v>
       </c>
       <c r="M8">
-        <v>1.047110059448721</v>
+        <v>1.028603387032684</v>
       </c>
       <c r="N8">
-        <v>1.01083134790601</v>
+        <v>0.9970276599805071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011852837783804</v>
+        <v>0.9388894185894753</v>
       </c>
       <c r="D9">
-        <v>1.040082490765393</v>
+        <v>1.021700031177395</v>
       </c>
       <c r="E9">
-        <v>1.01397453833955</v>
+        <v>0.9541269512847029</v>
       </c>
       <c r="F9">
-        <v>1.041842240062579</v>
+        <v>1.00385036699401</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035134323368208</v>
+        <v>1.048454460607488</v>
       </c>
       <c r="J9">
-        <v>1.01780756247623</v>
+        <v>0.9668013911733846</v>
       </c>
       <c r="K9">
-        <v>1.043231808194725</v>
+        <v>1.03445058487682</v>
       </c>
       <c r="L9">
-        <v>1.017210680746407</v>
+        <v>0.9680108817147063</v>
       </c>
       <c r="M9">
-        <v>1.044985876746627</v>
+        <v>1.016881282046668</v>
       </c>
       <c r="N9">
-        <v>1.009911509748014</v>
+        <v>0.9921459033271715</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009475251103775</v>
+        <v>0.9251191572386147</v>
       </c>
       <c r="D10">
-        <v>1.038906094647093</v>
+        <v>1.014565210060955</v>
       </c>
       <c r="E10">
-        <v>1.011934648686264</v>
+        <v>0.9428804131096692</v>
       </c>
       <c r="F10">
-        <v>1.040120246487484</v>
+        <v>0.9939198938495842</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03483231227235</v>
+        <v>1.045517972736857</v>
       </c>
       <c r="J10">
-        <v>1.015995692969898</v>
+        <v>0.95665450065181</v>
       </c>
       <c r="K10">
-        <v>1.042341342119609</v>
+        <v>1.028676372358671</v>
       </c>
       <c r="L10">
-        <v>1.015468492515486</v>
+        <v>0.9583636954751303</v>
       </c>
       <c r="M10">
-        <v>1.043551188210768</v>
+        <v>1.008399801152374</v>
       </c>
       <c r="N10">
-        <v>1.009293074821675</v>
+        <v>0.9886044239961576</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00844333896347</v>
+        <v>0.9188475839834406</v>
       </c>
       <c r="D11">
-        <v>1.038393216961082</v>
+        <v>1.011336646191363</v>
       </c>
       <c r="E11">
-        <v>1.011049692362291</v>
+        <v>0.9377757028929203</v>
       </c>
       <c r="F11">
-        <v>1.039370866221991</v>
+        <v>0.9894224869838371</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034697787318662</v>
+        <v>1.044166781468037</v>
       </c>
       <c r="J11">
-        <v>1.015208478538605</v>
+        <v>0.9520346523176831</v>
       </c>
       <c r="K11">
-        <v>1.041951471078047</v>
+        <v>1.026047890557979</v>
       </c>
       <c r="L11">
-        <v>1.014711824102829</v>
+        <v>0.9539748915478973</v>
       </c>
       <c r="M11">
-        <v>1.042925518233904</v>
+        <v>1.004546675078229</v>
       </c>
       <c r="N11">
-        <v>1.009024021502527</v>
+        <v>0.9869910395286577</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00805966959656</v>
+        <v>0.9164665854480595</v>
       </c>
       <c r="D12">
-        <v>1.038202186001902</v>
+        <v>1.010114951236798</v>
       </c>
       <c r="E12">
-        <v>1.010720721482819</v>
+        <v>0.9358406135694214</v>
       </c>
       <c r="F12">
-        <v>1.039091946963307</v>
+        <v>0.9877197857637764</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034647254812343</v>
+        <v>1.043652165602844</v>
       </c>
       <c r="J12">
-        <v>1.014915664497793</v>
+        <v>0.9502811663235899</v>
       </c>
       <c r="K12">
-        <v>1.041806009607585</v>
+        <v>1.02505089699048</v>
       </c>
       <c r="L12">
-        <v>1.014430412793468</v>
+        <v>0.9523096550933084</v>
       </c>
       <c r="M12">
-        <v>1.042692446570679</v>
+        <v>1.003086098619974</v>
       </c>
       <c r="N12">
-        <v>1.008923890273573</v>
+        <v>0.9863785656864693</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008141984947186</v>
+        <v>0.9169797356361539</v>
       </c>
       <c r="D13">
-        <v>1.038243186580426</v>
+        <v>1.010378052677697</v>
       </c>
       <c r="E13">
-        <v>1.010791298684306</v>
+        <v>0.9362575255591511</v>
       </c>
       <c r="F13">
-        <v>1.039151801760725</v>
+        <v>0.9880865203069239</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034658119730445</v>
+        <v>1.043763141392951</v>
       </c>
       <c r="J13">
-        <v>1.014978492666759</v>
+        <v>0.95065905229675</v>
       </c>
       <c r="K13">
-        <v>1.041837240836341</v>
+        <v>1.025265714784704</v>
       </c>
       <c r="L13">
-        <v>1.014490792470078</v>
+        <v>0.9526684972958227</v>
       </c>
       <c r="M13">
-        <v>1.042742471598224</v>
+        <v>1.003400764583287</v>
       </c>
       <c r="N13">
-        <v>1.008945377529334</v>
+        <v>0.9865105613189374</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008411632368247</v>
+        <v>0.918651851505906</v>
       </c>
       <c r="D14">
-        <v>1.038377437005192</v>
+        <v>1.011236128469292</v>
       </c>
       <c r="E14">
-        <v>1.01102250484897</v>
+        <v>0.93761656609629</v>
       </c>
       <c r="F14">
-        <v>1.039347822236047</v>
+        <v>0.9892824129720511</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034693621791782</v>
+        <v>1.044124507421053</v>
       </c>
       <c r="J14">
-        <v>1.015184282796032</v>
+        <v>0.9518904950033534</v>
       </c>
       <c r="K14">
-        <v>1.041939460371769</v>
+        <v>1.025965908918778</v>
       </c>
       <c r="L14">
-        <v>1.014688569756718</v>
+        <v>0.9538379779787165</v>
       </c>
       <c r="M14">
-        <v>1.042906266141673</v>
+        <v>1.004426556121731</v>
       </c>
       <c r="N14">
-        <v>1.009015748572516</v>
+        <v>0.9869406888356907</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00857772153453</v>
+        <v>0.9196751148991062</v>
       </c>
       <c r="D15">
-        <v>1.038460083478798</v>
+        <v>1.011761790722768</v>
       </c>
       <c r="E15">
-        <v>1.011164924086014</v>
+        <v>0.9384486320767452</v>
       </c>
       <c r="F15">
-        <v>1.039468521810998</v>
+        <v>0.9900148993355823</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034715421047249</v>
+        <v>1.044345446783834</v>
       </c>
       <c r="J15">
-        <v>1.015311022657482</v>
+        <v>0.9526441493404201</v>
       </c>
       <c r="K15">
-        <v>1.042002355568624</v>
+        <v>1.026394539287111</v>
       </c>
       <c r="L15">
-        <v>1.014810380152521</v>
+        <v>0.9545537847305887</v>
       </c>
       <c r="M15">
-        <v>1.043007096500466</v>
+        <v>1.005054618822575</v>
       </c>
       <c r="N15">
-        <v>1.009059080865253</v>
+        <v>0.9872039181625519</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009543684227805</v>
+        <v>0.9255284584056885</v>
       </c>
       <c r="D16">
-        <v>1.038940059031106</v>
+        <v>1.014776419174833</v>
       </c>
       <c r="E16">
-        <v>1.01199334446871</v>
+        <v>0.9432139448463432</v>
       </c>
       <c r="F16">
-        <v>1.040169901189431</v>
+        <v>0.994214006084958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034841161178141</v>
+        <v>1.045605906139257</v>
       </c>
       <c r="J16">
-        <v>1.016047881057537</v>
+        <v>0.9569560533069049</v>
       </c>
       <c r="K16">
-        <v>1.042367126038583</v>
+        <v>1.028847999731473</v>
       </c>
       <c r="L16">
-        <v>1.015518661273858</v>
+        <v>0.9586502419957866</v>
       </c>
       <c r="M16">
-        <v>1.043592618070785</v>
+        <v>1.008651532696821</v>
       </c>
       <c r="N16">
-        <v>1.009310904098542</v>
+        <v>0.9887097181940999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010148956819027</v>
+        <v>0.929114061889774</v>
       </c>
       <c r="D17">
-        <v>1.039240199880032</v>
+        <v>1.016629125057889</v>
       </c>
       <c r="E17">
-        <v>1.012512537995553</v>
+        <v>0.9461377775241193</v>
       </c>
       <c r="F17">
-        <v>1.040608852803667</v>
+        <v>0.9967934695729783</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034919029931369</v>
+        <v>1.046374726356586</v>
       </c>
       <c r="J17">
-        <v>1.016509374661475</v>
+        <v>0.9595979364132257</v>
       </c>
       <c r="K17">
-        <v>1.042594786794224</v>
+        <v>1.030351735160823</v>
       </c>
       <c r="L17">
-        <v>1.015962329440128</v>
+        <v>0.9611610569847283</v>
       </c>
       <c r="M17">
-        <v>1.043958709475527</v>
+        <v>1.010857955444589</v>
       </c>
       <c r="N17">
-        <v>1.009468525208952</v>
+        <v>0.98963209000112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010501771091669</v>
+        <v>0.9311760513895655</v>
       </c>
       <c r="D18">
-        <v>1.039414930256067</v>
+        <v>1.017696467341247</v>
       </c>
       <c r="E18">
-        <v>1.012815214127875</v>
+        <v>0.9478208120831189</v>
       </c>
       <c r="F18">
-        <v>1.040864524679987</v>
+        <v>0.9982791616934346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034964087447611</v>
+        <v>1.046815534691224</v>
       </c>
       <c r="J18">
-        <v>1.016778299643135</v>
+        <v>0.9611173401985403</v>
       </c>
       <c r="K18">
-        <v>1.042727163286097</v>
+        <v>1.031216571622666</v>
       </c>
       <c r="L18">
-        <v>1.016220893158166</v>
+        <v>0.9626054093640432</v>
       </c>
       <c r="M18">
-        <v>1.044171816165937</v>
+        <v>1.012127665307381</v>
       </c>
       <c r="N18">
-        <v>1.009560340867985</v>
+        <v>0.9901624733540283</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010622032776173</v>
+        <v>0.9318742852676498</v>
       </c>
       <c r="D19">
-        <v>1.039474451715407</v>
+        <v>1.018058190063305</v>
       </c>
       <c r="E19">
-        <v>1.012918391846671</v>
+        <v>0.9483909893528942</v>
       </c>
       <c r="F19">
-        <v>1.040951641019611</v>
+        <v>0.998782615033339</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034979389499085</v>
+        <v>1.046964565825605</v>
       </c>
       <c r="J19">
-        <v>1.016869952841779</v>
+        <v>0.9616318580980003</v>
       </c>
       <c r="K19">
-        <v>1.042772230025626</v>
+        <v>1.031509417308372</v>
       </c>
       <c r="L19">
-        <v>1.016309019528355</v>
+        <v>0.9630945675761985</v>
       </c>
       <c r="M19">
-        <v>1.04424440748918</v>
+        <v>1.01255773880791</v>
       </c>
       <c r="N19">
-        <v>1.009591627005474</v>
+        <v>0.9903420610829879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010084040766291</v>
+        <v>0.9287324389081959</v>
       </c>
       <c r="D20">
-        <v>1.039208032441194</v>
+        <v>1.016431734566567</v>
       </c>
       <c r="E20">
-        <v>1.012456850118124</v>
+        <v>0.9458264185129588</v>
       </c>
       <c r="F20">
-        <v>1.040561794831594</v>
+        <v>0.9965186858863548</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034910712797152</v>
+        <v>1.046293033718539</v>
       </c>
       <c r="J20">
-        <v>1.016459887343085</v>
+        <v>0.9593167411869896</v>
       </c>
       <c r="K20">
-        <v>1.042570403796877</v>
+        <v>1.030191676923372</v>
       </c>
       <c r="L20">
-        <v>1.015914750894257</v>
+        <v>0.9608937779644395</v>
       </c>
       <c r="M20">
-        <v>1.043919475647241</v>
+        <v>1.01062302747395</v>
       </c>
       <c r="N20">
-        <v>1.009451626599729</v>
+        <v>0.9895339244881962</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00833223825645</v>
+        <v>0.9181609198718023</v>
       </c>
       <c r="D21">
-        <v>1.038337918111481</v>
+        <v>1.010984080146725</v>
       </c>
       <c r="E21">
-        <v>1.010954427599715</v>
+        <v>0.9372174707071311</v>
       </c>
       <c r="F21">
-        <v>1.039290114744875</v>
+        <v>0.9889311620545423</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034683182889366</v>
+        <v>1.044018451905905</v>
       </c>
       <c r="J21">
-        <v>1.015123694042889</v>
+        <v>0.951528930774927</v>
       </c>
       <c r="K21">
-        <v>1.041909377107472</v>
+        <v>1.025760301615912</v>
       </c>
       <c r="L21">
-        <v>1.014630339020437</v>
+        <v>0.9534945909699249</v>
       </c>
       <c r="M21">
-        <v>1.042858051249092</v>
+        <v>1.004125315771632</v>
       </c>
       <c r="N21">
-        <v>1.008995031398026</v>
+        <v>0.9868144015574113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0072286572832</v>
+        <v>0.9112133777698129</v>
       </c>
       <c r="D22">
-        <v>1.037787802655467</v>
+        <v>1.007428034371995</v>
       </c>
       <c r="E22">
-        <v>1.010008294312591</v>
+        <v>0.9315769506712799</v>
       </c>
       <c r="F22">
-        <v>1.03848728223649</v>
+        <v>0.9839729939591225</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034536862829734</v>
+        <v>1.042514269708361</v>
       </c>
       <c r="J22">
-        <v>1.014281214565481</v>
+        <v>0.946413510960589</v>
       </c>
       <c r="K22">
-        <v>1.041490025263053</v>
+        <v>1.022853762811496</v>
       </c>
       <c r="L22">
-        <v>1.013820744166228</v>
+        <v>0.9486377089655665</v>
       </c>
       <c r="M22">
-        <v>1.042186813850515</v>
+        <v>0.9998687782615284</v>
       </c>
       <c r="N22">
-        <v>1.008706834860351</v>
+        <v>0.9850274859722935</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007813894056029</v>
+        <v>0.9149268085653475</v>
       </c>
       <c r="D23">
-        <v>1.038079717765141</v>
+        <v>1.009326143868665</v>
       </c>
       <c r="E23">
-        <v>1.010510002302008</v>
+        <v>0.9345900636363947</v>
       </c>
       <c r="F23">
-        <v>1.038913190667339</v>
+        <v>0.9866201213202538</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034614739240755</v>
+        <v>1.043318963989146</v>
       </c>
       <c r="J23">
-        <v>1.014728055253068</v>
+        <v>0.9491473501073275</v>
       </c>
       <c r="K23">
-        <v>1.041712686285216</v>
+        <v>1.024406499248614</v>
       </c>
       <c r="L23">
-        <v>1.01425012088774</v>
+        <v>0.9512330617662085</v>
       </c>
       <c r="M23">
-        <v>1.042543018037786</v>
+        <v>1.002142299395317</v>
       </c>
       <c r="N23">
-        <v>1.008859720021339</v>
+        <v>0.9859825111668039</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010113374250143</v>
+        <v>0.9289049684894247</v>
       </c>
       <c r="D24">
-        <v>1.039222568563047</v>
+        <v>1.01652096784914</v>
       </c>
       <c r="E24">
-        <v>1.012482013569552</v>
+        <v>0.9459671771601215</v>
       </c>
       <c r="F24">
-        <v>1.040583059420102</v>
+        <v>0.9966429069213076</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034914472070906</v>
+        <v>1.046329970633125</v>
       </c>
       <c r="J24">
-        <v>1.016482249324647</v>
+        <v>0.9594438675810264</v>
       </c>
       <c r="K24">
-        <v>1.042581422703999</v>
+        <v>1.030264038156783</v>
       </c>
       <c r="L24">
-        <v>1.0159362502724</v>
+        <v>0.9610146119191848</v>
       </c>
       <c r="M24">
-        <v>1.043937205049115</v>
+        <v>1.01072923448353</v>
       </c>
       <c r="N24">
-        <v>1.009459262731106</v>
+        <v>0.9895783047200123</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012772767948574</v>
+        <v>0.9439832999911093</v>
       </c>
       <c r="D25">
-        <v>1.040535577693279</v>
+        <v>1.024352022143288</v>
       </c>
       <c r="E25">
-        <v>1.014764146761313</v>
+        <v>0.9583003691302896</v>
       </c>
       <c r="F25">
-        <v>1.042506691823362</v>
+        <v>1.007540021267005</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035248094759934</v>
+        <v>1.049526618225866</v>
       </c>
       <c r="J25">
-        <v>1.018507860394927</v>
+        <v>0.9705549762453746</v>
       </c>
       <c r="K25">
-        <v>1.043573298397437</v>
+        <v>1.036583710283828</v>
       </c>
       <c r="L25">
-        <v>1.017884287207982</v>
+        <v>0.9715824561504336</v>
       </c>
       <c r="M25">
-        <v>1.04553829198262</v>
+        <v>1.020022404957338</v>
       </c>
       <c r="N25">
-        <v>1.010150218813517</v>
+        <v>0.9934549554400257</v>
       </c>
     </row>
   </sheetData>
